--- a/Sonstiges/MFEM-Vorlage.xlsx
+++ b/Sonstiges/MFEM-Vorlage.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27907"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28016"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="17920" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="QUT-GQM" sheetId="2" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="99">
   <si>
     <t>1: Installation / Einrichtung</t>
   </si>
@@ -64,33 +64,18 @@
     <t>Die Schnittstelle ist nach dem HATEOAS Modell aufgebaut</t>
   </si>
   <si>
-    <t>Daten können im XML oder JSON Format übertragen werden</t>
-  </si>
-  <si>
-    <t>Fehler bei Inter-Service Kommunikation werden erkannt und behandelt</t>
-  </si>
-  <si>
     <t>Performance</t>
   </si>
   <si>
-    <t>Skalierung der Services ist schnell und dynamisch</t>
-  </si>
-  <si>
     <t>Der Service verwendet möglichst wenig Speicher</t>
   </si>
   <si>
-    <t>Kurze Reakionszeit</t>
-  </si>
-  <si>
     <t>Hoher Durchsatz</t>
   </si>
   <si>
     <t>Benutzbarkeit</t>
   </si>
   <si>
-    <t>Der Service lässt sich einfach und vollständig testen</t>
-  </si>
-  <si>
     <t>Build-Management-Tool(s) vorhanden</t>
   </si>
   <si>
@@ -103,9 +88,6 @@
     <t>Sicherheit</t>
   </si>
   <si>
-    <t>Die Datenübertragung zum und vom Service ist abgesichert</t>
-  </si>
-  <si>
     <t>Missbrauch vom Service kann unterbunden werden</t>
   </si>
   <si>
@@ -116,9 +98,6 @@
   </si>
   <si>
     <t>Der Status vom Service kann Zentral erfasst werden</t>
-  </si>
-  <si>
-    <t>Anpassungen am Service sind einfach</t>
   </si>
   <si>
     <t>Question</t>
@@ -146,9 +125,6 @@
 (0.0 - 1.0)</t>
   </si>
   <si>
-    <t>Progressivität</t>
-  </si>
-  <si>
     <t>Aktive Community</t>
   </si>
   <si>
@@ -164,27 +140,215 @@
     <t>Ergebnis mit Gewichtung</t>
   </si>
   <si>
-    <t>Gewichtung 
+    <t>Kategorien</t>
+  </si>
+  <si>
+    <t>Soll</t>
+  </si>
+  <si>
+    <t>Ist</t>
+  </si>
+  <si>
+    <t>Ist %</t>
+  </si>
+  <si>
+    <t>Unterstützt das Framework eine automatische Validierung von Domänen Objekten?</t>
+  </si>
+  <si>
+    <t>Fügt das Framework HATEOAS Links in die Antowrt ein?</t>
+  </si>
+  <si>
+    <t>Baut das Framework die Schnittstelle über Ressourcen auf?</t>
+  </si>
+  <si>
+    <t>Kann das Framework Daten im JSON Format de-/serialisieren</t>
+  </si>
+  <si>
+    <t>Kann das Framework Daten im XML Format de-/serialisieren</t>
+  </si>
+  <si>
+    <t>Wir vom Framework das Circuit Breaker Pattern unterstützt</t>
+  </si>
+  <si>
+    <t>Ist der Service leichtgewichtig?</t>
+  </si>
+  <si>
+    <t>Lässt sich automatisiert ein Build vom Service erstellen</t>
+  </si>
+  <si>
+    <t>Werden Dependencies automatisch geladen?</t>
+  </si>
+  <si>
+    <t>Kann eine Endpunkt einfach erstellt werden?</t>
+  </si>
+  <si>
+    <t>Lässt sich das Framework einfach und schnell installieren?</t>
+  </si>
+  <si>
+    <t>Ist die Entwicklung schnell zu erlernen</t>
+  </si>
+  <si>
+    <t>Bietet das Framework eine umfangreiche Dokumentation mit Beispielen</t>
+  </si>
+  <si>
+    <t>Lassen sich über das Framework Events loggen</t>
+  </si>
+  <si>
+    <t>Lässt sich die API mittels JWT absichern?</t>
+  </si>
+  <si>
+    <t>Bietet das Framework eine Schnittstelle für Logging</t>
+  </si>
+  <si>
+    <t>Bietet das Framework eine Schnittstelle für Metriken</t>
+  </si>
+  <si>
+    <t>Framework wird supported</t>
+  </si>
+  <si>
+    <t>Wie lange wird ein Support gewährleistet?</t>
+  </si>
+  <si>
+    <t>Gibt es vom Hersteller Support</t>
+  </si>
+  <si>
+    <t>Kommerzieller Support vorhanden (j/n)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Werden Regelmäßig Fehler behoben?</t>
+  </si>
+  <si>
+    <t>Release Zykluslänge bzw. Durchschnittlicher Majorrelease Abstand</t>
+  </si>
+  <si>
+    <t>Stehen große Firmen dahinter?</t>
+  </si>
+  <si>
+    <t>Wie viele Benutzer gibt es</t>
+  </si>
+  <si>
+    <t>Github - Star + Watch + Fork</t>
+  </si>
+  <si>
+    <t>Ist der Overhead vom Framework minimal?</t>
+  </si>
+  <si>
+    <t>Latenz Antwort bei Messung an Endpunkt ohne Logik</t>
+  </si>
+  <si>
+    <t>Kurze Reakionszeit</t>
+  </si>
+  <si>
+    <t>Kann der Service Lastspitzen aushalten und bewältigen?</t>
+  </si>
+  <si>
+    <t>Druchsatz bei 100.000 Anfragen mit 255 echt parallelen Clients in Anfragen/Sek</t>
+  </si>
+  <si>
+    <t>Messung Heap Size unter Last: Kleiner 100MB</t>
+  </si>
+  <si>
+    <t>Länge vom Support in Monaten pro Major Release</t>
+  </si>
+  <si>
+    <t>Firmen über 1000 MA</t>
+  </si>
+  <si>
+    <t>Firmen über 100 MA</t>
+  </si>
+  <si>
+    <t>Zukunftssicherheit</t>
+  </si>
+  <si>
+    <t>Priorität</t>
+  </si>
+  <si>
+    <t>Gewichtung Metrik
 (A=100%, B=50%, C=25%)</t>
   </si>
   <si>
-    <t>Kategorien</t>
-  </si>
-  <si>
-    <t>Soll</t>
-  </si>
-  <si>
-    <t>Ist</t>
-  </si>
-  <si>
-    <t>Ist %</t>
+    <t>Objekvalidierung:
+Ordinalskala (enthalten, leicht umsetzbar, schwer umsetzbar)</t>
+  </si>
+  <si>
+    <t>HATEOAS-Links: Ordinalskala (automatisch, manuell, nicht möglich)</t>
+  </si>
+  <si>
+    <t>Schnittstelle nach Ressourcen:
+Ordinalskala (automatisch, manuell, nicht möglich)</t>
+  </si>
+  <si>
+    <t>Standardisierte Datenformate</t>
+  </si>
+  <si>
+    <t>JSON-Format:
+Ordinalskala(automatisch, manuell, nicht möglich)</t>
+  </si>
+  <si>
+    <t>XML-Format:
+Ordinalskala(automatisch, manuell, nicht möglich)</t>
+  </si>
+  <si>
+    <t>Verhinderung kaskadischer Fehler</t>
+  </si>
+  <si>
+    <t>Circuit-Breaker-Pattern:
+Ordinalskala (enthalten, leicht umsetzbar, schwer umsetzbar)</t>
+  </si>
+  <si>
+    <t>Lassen sich schnell neue Instanzen hochfahren?</t>
+  </si>
+  <si>
+    <t>Messung Startzeit</t>
+  </si>
+  <si>
+    <t>Autom. Builds:
+Ordinalskala (Verfügbar, leicht umsetzbar, schwer umsetzbar)</t>
+  </si>
+  <si>
+    <t>Dependencieverwaltung:
+Ordinalskala (Verfügbar, leicht umsetzbar, schwer umsetzbar)</t>
+  </si>
+  <si>
+    <t>LoC für einen Endpunkt</t>
+  </si>
+  <si>
+    <t>Methodenaufrufe für einen Endpunkt</t>
+  </si>
+  <si>
+    <t>Installation:
+Ordinalskala (sehr gut, gut, schlecht)</t>
+  </si>
+  <si>
+    <t>Entwicklung mit Framework:
+Ordinalskala (sehr gut, gut, schlecht)</t>
+  </si>
+  <si>
+    <t>Dokumentation:
+Ordinalskala (Sehr Umfangreich mit Beispielen, Umfangreich, Einfach, keine)</t>
+  </si>
+  <si>
+    <t>Logged Events:
+Ordinalskala (Verfügbar, leicht umsetzbar, schwer umsetzbar)</t>
+  </si>
+  <si>
+    <t>JWT-Auth.:
+Ordinalskala (Verfügbar, leicht umsetzbar, schwer umsetzbar)</t>
+  </si>
+  <si>
+    <t>Logging:
+Ordinalskala (Verfügbar, leicht umsetzbar, schwer umsetzbar)</t>
+  </si>
+  <si>
+    <t>Metriken:
+Ordinalskala (Verfügbar, leicht umsetzbar, schwer umsetzbar)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -200,6 +364,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -209,7 +389,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="26">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -546,11 +726,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -573,39 +766,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -616,21 +776,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -669,8 +814,97 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Stand." xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -805,7 +1039,7 @@
                   <c:v>Wartbarkeit</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Progressivität</c:v>
+                  <c:v>Zukunftssicherheit</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -846,11 +1080,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1758300448"/>
-        <c:axId val="1857364624"/>
+        <c:axId val="-568855600"/>
+        <c:axId val="-568853280"/>
       </c:radarChart>
       <c:catAx>
-        <c:axId val="1758300448"/>
+        <c:axId val="-568855600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -893,7 +1127,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1857364624"/>
+        <c:crossAx val="-568853280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -901,7 +1135,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1857364624"/>
+        <c:axId val="-568853280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.0"/>
@@ -952,7 +1186,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1758300448"/>
+        <c:crossAx val="-568855600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1844,741 +2078,1019 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I38"/>
+  <dimension ref="A1:J44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18.6640625" customWidth="1"/>
-    <col min="2" max="2" width="7.5" style="37" customWidth="1"/>
-    <col min="3" max="3" width="42.83203125" customWidth="1"/>
-    <col min="4" max="4" width="7.1640625" style="37" customWidth="1"/>
-    <col min="5" max="5" width="31" customWidth="1"/>
-    <col min="6" max="6" width="8.1640625" customWidth="1"/>
-    <col min="7" max="7" width="31" customWidth="1"/>
-    <col min="8" max="8" width="24.1640625" customWidth="1"/>
-    <col min="9" max="9" width="12.33203125" customWidth="1"/>
+    <col min="2" max="2" width="7.5" style="21" customWidth="1"/>
+    <col min="3" max="3" width="42.83203125" style="38" customWidth="1"/>
+    <col min="4" max="4" width="8.33203125" style="38" customWidth="1"/>
+    <col min="5" max="5" width="7.1640625" style="21" customWidth="1"/>
+    <col min="6" max="6" width="37.33203125" style="38" customWidth="1"/>
+    <col min="7" max="7" width="8.1640625" style="21" customWidth="1"/>
+    <col min="8" max="8" width="31" style="38" customWidth="1"/>
+    <col min="9" max="9" width="24.1640625" customWidth="1"/>
+    <col min="10" max="10" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="34" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="34" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="58" t="s">
+        <v>76</v>
+      </c>
+      <c r="E1" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="J1" s="17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="19">
+        <v>1</v>
+      </c>
+      <c r="C2" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="59"/>
+      <c r="E2" s="19">
+        <v>1</v>
+      </c>
+      <c r="F2" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="G2" s="35">
+        <v>1</v>
+      </c>
+      <c r="H2" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="I2" s="22"/>
+      <c r="J2" s="1">
+        <f>IFERROR(VLOOKUP($G2,Evaluation!C:F,4,FALSE),0)*I2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="43"/>
+      <c r="B3" s="46">
+        <v>2</v>
+      </c>
+      <c r="C3" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="44"/>
+      <c r="E3" s="19">
+        <v>2</v>
+      </c>
+      <c r="F3" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="G3" s="35">
+        <v>2</v>
+      </c>
+      <c r="H3" s="40" t="s">
+        <v>79</v>
+      </c>
+      <c r="I3" s="22"/>
+      <c r="J3" s="2">
+        <f>IFERROR(VLOOKUP($G3,Evaluation!C:F,4,FALSE),0)*I3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="48"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="20">
         <v>3</v>
       </c>
-      <c r="D1" s="43" t="s">
-        <v>41</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F1" s="5" t="s">
+      <c r="F4" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G4" s="35">
+        <v>3</v>
+      </c>
+      <c r="H4" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="I4" s="23"/>
+      <c r="J4" s="2">
+        <f>IFERROR(VLOOKUP($G4,Evaluation!C:F,4,FALSE),0)*I4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="48"/>
+      <c r="B5" s="46">
+        <v>3</v>
+      </c>
+      <c r="C5" s="44" t="s">
+        <v>81</v>
+      </c>
+      <c r="D5" s="44"/>
+      <c r="E5" s="19">
         <v>4</v>
       </c>
-      <c r="H1" s="28" t="s">
+      <c r="F5" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="G5" s="35">
+        <v>4</v>
+      </c>
+      <c r="H5" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="I5" s="23"/>
+      <c r="J5" s="2">
+        <f>IFERROR(VLOOKUP($G5,Evaluation!C:F,4,FALSE),0)*I5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="48"/>
+      <c r="B6" s="47"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="19">
+        <v>5</v>
+      </c>
+      <c r="F6" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="I1" s="28" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="14" t="s">
+      <c r="G6" s="35">
+        <v>5</v>
+      </c>
+      <c r="H6" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="I6" s="23"/>
+      <c r="J6" s="2">
+        <f>IFERROR(VLOOKUP($G6,Evaluation!C:F,4,FALSE),0)*I6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="48"/>
+      <c r="B7" s="20">
+        <v>4</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="D7" s="60"/>
+      <c r="E7" s="20">
+        <v>6</v>
+      </c>
+      <c r="F7" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="G7" s="35">
+        <v>6</v>
+      </c>
+      <c r="H7" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="I7" s="23"/>
+      <c r="J7" s="2">
+        <f>IFERROR(VLOOKUP($G7,Evaluation!C:F,4,FALSE),0)*I7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="46">
+        <v>5</v>
+      </c>
+      <c r="C8" s="44" t="s">
+        <v>68</v>
+      </c>
+      <c r="D8" s="44"/>
+      <c r="E8" s="19">
+        <v>7</v>
+      </c>
+      <c r="F8" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="G8" s="35">
+        <v>7</v>
+      </c>
+      <c r="H8" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="I8" s="23"/>
+      <c r="J8" s="2">
+        <f>IFERROR(VLOOKUP($G8,Evaluation!C:F,4,FALSE),0)*I8</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="49"/>
+      <c r="B9" s="47"/>
+      <c r="C9" s="45"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="62">
         <v>8</v>
       </c>
-      <c r="B2" s="35">
-        <v>1</v>
-      </c>
-      <c r="C2" s="29" t="s">
+      <c r="F9" s="40" t="s">
+        <v>86</v>
+      </c>
+      <c r="G9" s="35">
+        <v>8</v>
+      </c>
+      <c r="H9" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="I9" s="23"/>
+      <c r="J9" s="2">
+        <f>IFERROR(VLOOKUP($G9,Evaluation!C:F,4,FALSE),0)*I9</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="49"/>
+      <c r="B10" s="19">
+        <v>6</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="40"/>
+      <c r="E10" s="41">
         <v>9</v>
       </c>
-      <c r="D2" s="35">
-        <v>1</v>
-      </c>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29">
-        <v>1</v>
-      </c>
-      <c r="G2" s="29"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="1">
-        <f>IFERROR(VLOOKUP($F2,Evaluation!C:F,4,FALSE),0)*H2</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="14"/>
-      <c r="B3" s="30">
-        <v>2</v>
-      </c>
-      <c r="C3" s="31" t="s">
+      <c r="F10" s="40" t="s">
+        <v>69</v>
+      </c>
+      <c r="G10" s="35">
+        <v>9</v>
+      </c>
+      <c r="H10" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="I10" s="23"/>
+      <c r="J10" s="2">
+        <f>IFERROR(VLOOKUP($G10,Evaluation!C:F,4,FALSE),0)*I10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="43"/>
+      <c r="B11" s="20">
+        <v>7</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="60"/>
+      <c r="E11" s="20">
         <v>10</v>
       </c>
-      <c r="D3" s="35">
-        <v>2</v>
-      </c>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29">
-        <v>2</v>
-      </c>
-      <c r="G3" s="29"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="2">
-        <f>IFERROR(VLOOKUP($F3,Evaluation!C:F,4,FALSE),0)*H3</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="15"/>
-      <c r="B4" s="32"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="36">
-        <v>3</v>
-      </c>
-      <c r="E4" s="34"/>
-      <c r="F4" s="29">
-        <v>3</v>
-      </c>
-      <c r="G4" s="34"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="2">
-        <f>IFERROR(VLOOKUP($F4,Evaluation!C:F,4,FALSE),0)*H4</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="15"/>
-      <c r="B5" s="35">
-        <v>4</v>
-      </c>
-      <c r="C5" s="34" t="s">
+      <c r="F11" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="G11" s="35">
+        <v>10</v>
+      </c>
+      <c r="H11" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="I11" s="23"/>
+      <c r="J11" s="2">
+        <f>IFERROR(VLOOKUP($G11,Evaluation!C:F,4,FALSE),0)*I11</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="49" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="46">
+        <v>8</v>
+      </c>
+      <c r="C12" s="44" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="44"/>
+      <c r="E12" s="20">
         <v>11</v>
       </c>
-      <c r="D5" s="35">
-        <v>4</v>
-      </c>
-      <c r="E5" s="34"/>
-      <c r="F5" s="29">
-        <v>4</v>
-      </c>
-      <c r="G5" s="34"/>
-      <c r="H5" s="39"/>
-      <c r="I5" s="2">
-        <f>IFERROR(VLOOKUP($F5,Evaluation!C:F,4,FALSE),0)*H5</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="15"/>
-      <c r="B6" s="36">
-        <v>5</v>
-      </c>
-      <c r="C6" s="34" t="s">
+      <c r="F12" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="G12" s="35">
+        <v>11</v>
+      </c>
+      <c r="H12" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="I12" s="23"/>
+      <c r="J12" s="2">
+        <f>IFERROR(VLOOKUP($G12,Evaluation!C:F,4,FALSE),0)*I12</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="49"/>
+      <c r="B13" s="47"/>
+      <c r="C13" s="45"/>
+      <c r="D13" s="45"/>
+      <c r="E13" s="19">
         <v>12</v>
       </c>
-      <c r="D6" s="36">
-        <v>5</v>
-      </c>
-      <c r="E6" s="34"/>
-      <c r="F6" s="29">
-        <v>5</v>
-      </c>
-      <c r="G6" s="34"/>
-      <c r="H6" s="39"/>
-      <c r="I6" s="2">
-        <f>IFERROR(VLOOKUP($F6,Evaluation!C:F,4,FALSE),0)*H6</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="13" t="s">
+      <c r="F13" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="G13" s="35">
+        <v>12</v>
+      </c>
+      <c r="H13" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="I13" s="23"/>
+      <c r="J13" s="2">
+        <f>IFERROR(VLOOKUP($G13,Evaluation!C:F,4,FALSE),0)*I13</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="49"/>
+      <c r="B14" s="46">
+        <v>9</v>
+      </c>
+      <c r="C14" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="44"/>
+      <c r="E14" s="46">
         <v>13</v>
       </c>
-      <c r="B7" s="35">
-        <v>6</v>
-      </c>
-      <c r="C7" s="34" t="s">
+      <c r="F14" s="44" t="s">
+        <v>49</v>
+      </c>
+      <c r="G14" s="35">
+        <v>13</v>
+      </c>
+      <c r="H14" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="I14" s="23"/>
+      <c r="J14" s="2">
+        <f>IFERROR(VLOOKUP($G14,Evaluation!C:F,4,FALSE),0)*I14</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="49"/>
+      <c r="B15" s="50"/>
+      <c r="C15" s="51"/>
+      <c r="D15" s="51"/>
+      <c r="E15" s="47"/>
+      <c r="F15" s="45"/>
+      <c r="G15" s="35">
         <v>14</v>
       </c>
-      <c r="D7" s="35">
-        <v>6</v>
-      </c>
-      <c r="E7" s="34"/>
-      <c r="F7" s="29">
-        <v>6</v>
-      </c>
-      <c r="G7" s="34"/>
-      <c r="H7" s="39"/>
-      <c r="I7" s="2">
-        <f>IFERROR(VLOOKUP($F7,Evaluation!C:F,4,FALSE),0)*H7</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="16"/>
-      <c r="B8" s="36">
-        <v>7</v>
-      </c>
-      <c r="C8" s="34" t="s">
+      <c r="H15" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="I15" s="23"/>
+      <c r="J15" s="2">
+        <f>IFERROR(VLOOKUP($G15,Evaluation!C:F,4,FALSE),0)*I15</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="49"/>
+      <c r="B16" s="50"/>
+      <c r="C16" s="51"/>
+      <c r="D16" s="51"/>
+      <c r="E16" s="19">
+        <v>14</v>
+      </c>
+      <c r="F16" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="G16" s="35">
+        <v>15</v>
+      </c>
+      <c r="H16" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="I16" s="23"/>
+      <c r="J16" s="2">
+        <f>IFERROR(VLOOKUP($G16,Evaluation!C:F,4,FALSE),0)*I16</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="49"/>
+      <c r="B17" s="47"/>
+      <c r="C17" s="45"/>
+      <c r="D17" s="45"/>
+      <c r="E17" s="19">
+        <v>15</v>
+      </c>
+      <c r="F17" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="G17" s="35">
         <v>16</v>
       </c>
-      <c r="D8" s="36">
-        <v>7</v>
-      </c>
-      <c r="E8" s="34"/>
-      <c r="F8" s="29">
-        <v>7</v>
-      </c>
-      <c r="G8" s="34"/>
-      <c r="H8" s="39"/>
-      <c r="I8" s="2">
-        <f>IFERROR(VLOOKUP($F8,Evaluation!C:F,4,FALSE),0)*H8</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="16"/>
-      <c r="B9" s="35">
-        <v>8</v>
-      </c>
-      <c r="C9" s="34" t="s">
+      <c r="H17" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="I17" s="23"/>
+      <c r="J17" s="2">
+        <f>IFERROR(VLOOKUP($G17,Evaluation!C:F,4,FALSE),0)*I17</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="43"/>
+      <c r="B18" s="20">
+        <v>10</v>
+      </c>
+      <c r="C18" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="35">
-        <v>8</v>
-      </c>
-      <c r="E9" s="34"/>
-      <c r="F9" s="29">
-        <v>8</v>
-      </c>
-      <c r="G9" s="34"/>
-      <c r="H9" s="39"/>
-      <c r="I9" s="2">
-        <f>IFERROR(VLOOKUP($F9,Evaluation!C:F,4,FALSE),0)*H9</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="14"/>
-      <c r="B10" s="36">
-        <v>9</v>
-      </c>
-      <c r="C10" s="34" t="s">
+      <c r="D18" s="60"/>
+      <c r="E18" s="20">
+        <v>16</v>
+      </c>
+      <c r="F18" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="G18" s="35">
+        <v>17</v>
+      </c>
+      <c r="H18" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="I18" s="23"/>
+      <c r="J18" s="2">
+        <f>IFERROR(VLOOKUP($G18,Evaluation!C:F,4,FALSE),0)*I18</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="20">
+        <v>11</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" s="60"/>
+      <c r="E19" s="20">
+        <v>17</v>
+      </c>
+      <c r="F19" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="G19" s="35">
+        <v>18</v>
+      </c>
+      <c r="H19" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="I19" s="23"/>
+      <c r="J19" s="2">
+        <f>IFERROR(VLOOKUP($G19,Evaluation!C:F,4,FALSE),0)*I19</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="43"/>
+      <c r="B20" s="19">
+        <v>12</v>
+      </c>
+      <c r="C20" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" s="59"/>
+      <c r="E20" s="19">
+        <v>18</v>
+      </c>
+      <c r="F20" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="G20" s="35">
+        <v>19</v>
+      </c>
+      <c r="H20" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="I20" s="23"/>
+      <c r="J20" s="2">
+        <f>IFERROR(VLOOKUP($G20,Evaluation!C:F,4,FALSE),0)*I20</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="46">
+        <v>13</v>
+      </c>
+      <c r="C21" s="44" t="s">
+        <v>22</v>
+      </c>
+      <c r="D21" s="44"/>
+      <c r="E21" s="20">
+        <v>19</v>
+      </c>
+      <c r="F21" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="G21" s="35">
+        <v>20</v>
+      </c>
+      <c r="H21" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="I21" s="23"/>
+      <c r="J21" s="2">
+        <f>IFERROR(VLOOKUP($G21,Evaluation!C:F,4,FALSE),0)*I21</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="49"/>
+      <c r="B22" s="47"/>
+      <c r="C22" s="45"/>
+      <c r="D22" s="45"/>
+      <c r="E22" s="19">
+        <v>20</v>
+      </c>
+      <c r="F22" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="G22" s="35">
+        <v>21</v>
+      </c>
+      <c r="H22" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="I22" s="23"/>
+      <c r="J22" s="2">
+        <f>IFERROR(VLOOKUP($G22,Evaluation!C:F,4,FALSE),0)*I22</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="49"/>
+      <c r="B23" s="46">
+        <v>14</v>
+      </c>
+      <c r="C23" s="44" t="s">
+        <v>57</v>
+      </c>
+      <c r="D23" s="44"/>
+      <c r="E23" s="19">
+        <v>21</v>
+      </c>
+      <c r="F23" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="G23" s="35">
+        <v>22</v>
+      </c>
+      <c r="H23" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="I23" s="23"/>
+      <c r="J23" s="2">
+        <f>IFERROR(VLOOKUP($G23,Evaluation!C:F,4,FALSE),0)*I23</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="43"/>
+      <c r="B24" s="47"/>
+      <c r="C24" s="45"/>
+      <c r="D24" s="45"/>
+      <c r="E24" s="19">
+        <v>22</v>
+      </c>
+      <c r="F24" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="G24" s="35">
+        <v>23</v>
+      </c>
+      <c r="H24" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="I24" s="23"/>
+      <c r="J24" s="2">
+        <f>IFERROR(VLOOKUP($G24,Evaluation!C:F,4,FALSE),0)*I24</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="B25" s="46">
         <v>15</v>
       </c>
-      <c r="D10" s="36">
-        <v>9</v>
-      </c>
-      <c r="E10" s="34"/>
-      <c r="F10" s="29">
-        <v>9</v>
-      </c>
-      <c r="G10" s="34"/>
-      <c r="H10" s="39"/>
-      <c r="I10" s="2">
-        <f>IFERROR(VLOOKUP($F10,Evaluation!C:F,4,FALSE),0)*H10</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="35">
-        <v>10</v>
-      </c>
-      <c r="C11" s="34" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" s="35">
-        <v>10</v>
-      </c>
-      <c r="E11" s="34"/>
-      <c r="F11" s="29">
-        <v>10</v>
-      </c>
-      <c r="G11" s="34"/>
-      <c r="H11" s="39"/>
-      <c r="I11" s="2">
-        <f>IFERROR(VLOOKUP($F11,Evaluation!C:F,4,FALSE),0)*H11</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="16"/>
-      <c r="B12" s="36">
-        <v>11</v>
-      </c>
-      <c r="C12" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" s="36">
-        <v>11</v>
-      </c>
-      <c r="E12" s="34"/>
-      <c r="F12" s="29">
-        <v>11</v>
-      </c>
-      <c r="G12" s="34"/>
-      <c r="H12" s="39"/>
-      <c r="I12" s="2">
-        <f>IFERROR(VLOOKUP($F12,Evaluation!C:F,4,FALSE),0)*H12</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="16"/>
-      <c r="B13" s="35">
-        <v>12</v>
-      </c>
-      <c r="C13" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" s="35">
-        <v>12</v>
-      </c>
-      <c r="E13" s="34"/>
-      <c r="F13" s="29">
-        <v>12</v>
-      </c>
-      <c r="G13" s="34"/>
-      <c r="H13" s="39"/>
-      <c r="I13" s="2">
-        <f>IFERROR(VLOOKUP($F13,Evaluation!C:F,4,FALSE),0)*H13</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="14"/>
-      <c r="B14" s="36">
-        <v>13</v>
-      </c>
-      <c r="C14" s="34" t="s">
-        <v>22</v>
-      </c>
-      <c r="D14" s="36">
-        <v>13</v>
-      </c>
-      <c r="E14" s="34"/>
-      <c r="F14" s="29">
-        <v>13</v>
-      </c>
-      <c r="G14" s="34"/>
-      <c r="H14" s="39"/>
-      <c r="I14" s="2">
-        <f>IFERROR(VLOOKUP($F14,Evaluation!C:F,4,FALSE),0)*H14</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="13" t="s">
+      <c r="C25" s="44" t="s">
+        <v>31</v>
+      </c>
+      <c r="D25" s="44"/>
+      <c r="E25" s="20">
         <v>23</v>
       </c>
-      <c r="B15" s="35">
-        <v>14</v>
-      </c>
-      <c r="C15" s="34" t="s">
+      <c r="F25" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="G25" s="35">
         <v>24</v>
       </c>
-      <c r="D15" s="35">
-        <v>14</v>
-      </c>
-      <c r="E15" s="34"/>
-      <c r="F15" s="29">
-        <v>14</v>
-      </c>
-      <c r="G15" s="34"/>
-      <c r="H15" s="39"/>
-      <c r="I15" s="2">
-        <f>IFERROR(VLOOKUP($F15,Evaluation!C:F,4,FALSE),0)*H15</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="16"/>
-      <c r="B16" s="36">
-        <v>15</v>
-      </c>
-      <c r="C16" s="34" t="s">
+      <c r="H25" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="I25" s="23"/>
+      <c r="J25" s="2">
+        <f>IFERROR(VLOOKUP($G25,Evaluation!C:F,4,FALSE),0)*I25</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="49"/>
+      <c r="B26" s="50"/>
+      <c r="C26" s="51"/>
+      <c r="D26" s="51"/>
+      <c r="E26" s="46">
+        <v>24</v>
+      </c>
+      <c r="F26" s="44" t="s">
+        <v>63</v>
+      </c>
+      <c r="G26" s="35">
         <v>25</v>
       </c>
-      <c r="D16" s="36">
-        <v>15</v>
-      </c>
-      <c r="E16" s="34"/>
-      <c r="F16" s="29">
-        <v>15</v>
-      </c>
-      <c r="G16" s="34"/>
-      <c r="H16" s="39"/>
-      <c r="I16" s="2">
-        <f>IFERROR(VLOOKUP($F16,Evaluation!C:F,4,FALSE),0)*H16</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="14"/>
-      <c r="B17" s="35">
-        <v>16</v>
-      </c>
-      <c r="C17" s="34" t="s">
+      <c r="H26" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="I26" s="23"/>
+      <c r="J26" s="2">
+        <f>IFERROR(VLOOKUP($G26,Evaluation!C:F,4,FALSE),0)*I26</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="49"/>
+      <c r="B27" s="50"/>
+      <c r="C27" s="51"/>
+      <c r="D27" s="51"/>
+      <c r="E27" s="47"/>
+      <c r="F27" s="45"/>
+      <c r="G27" s="35">
         <v>26</v>
       </c>
-      <c r="D17" s="35">
-        <v>16</v>
-      </c>
-      <c r="E17" s="34"/>
-      <c r="F17" s="29">
-        <v>16</v>
-      </c>
-      <c r="G17" s="34"/>
-      <c r="H17" s="39"/>
-      <c r="I17" s="2">
-        <f>IFERROR(VLOOKUP($F17,Evaluation!C:F,4,FALSE),0)*H17</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="13" t="s">
+      <c r="H27" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="I27" s="23"/>
+      <c r="J27" s="2">
+        <f>IFERROR(VLOOKUP($G27,Evaluation!C:F,4,FALSE),0)*I27</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="43"/>
+      <c r="B28" s="47"/>
+      <c r="C28" s="45"/>
+      <c r="D28" s="45"/>
+      <c r="E28" s="20">
+        <v>25</v>
+      </c>
+      <c r="F28" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="G28" s="35">
         <v>27</v>
       </c>
-      <c r="B18" s="36">
-        <v>17</v>
-      </c>
-      <c r="C18" s="34" t="s">
-        <v>28</v>
-      </c>
-      <c r="D18" s="36">
-        <v>17</v>
-      </c>
-      <c r="E18" s="34"/>
-      <c r="F18" s="29">
-        <v>17</v>
-      </c>
-      <c r="G18" s="34"/>
-      <c r="H18" s="39"/>
-      <c r="I18" s="2">
-        <f>IFERROR(VLOOKUP($F18,Evaluation!C:F,4,FALSE),0)*H18</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="14"/>
-      <c r="B19" s="35">
-        <v>18</v>
-      </c>
-      <c r="C19" s="34" t="s">
-        <v>29</v>
-      </c>
-      <c r="D19" s="35">
-        <v>18</v>
-      </c>
-      <c r="E19" s="34"/>
-      <c r="F19" s="29">
-        <v>18</v>
-      </c>
-      <c r="G19" s="34"/>
-      <c r="H19" s="39"/>
-      <c r="I19" s="2">
-        <f>IFERROR(VLOOKUP($F19,Evaluation!C:F,4,FALSE),0)*H19</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="B20" s="36">
-        <v>19</v>
-      </c>
-      <c r="C20" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="D20" s="36">
-        <v>19</v>
-      </c>
-      <c r="E20" s="34"/>
-      <c r="F20" s="29">
-        <v>19</v>
-      </c>
-      <c r="G20" s="34"/>
-      <c r="H20" s="39"/>
-      <c r="I20" s="2">
-        <f>IFERROR(VLOOKUP($F20,Evaluation!C:F,4,FALSE),0)*H20</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="4"/>
-      <c r="B21" s="36"/>
-      <c r="C21" s="34"/>
-      <c r="D21" s="36"/>
-      <c r="E21" s="34"/>
-      <c r="F21" s="34"/>
-      <c r="G21" s="34"/>
-      <c r="H21" s="39"/>
-      <c r="I21" s="2">
-        <f>IFERROR(VLOOKUP($F21,Evaluation!C:F,4,FALSE),0)*H21</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="4"/>
-      <c r="B22" s="36"/>
-      <c r="C22" s="34"/>
-      <c r="D22" s="36"/>
-      <c r="E22" s="34"/>
-      <c r="F22" s="34"/>
-      <c r="G22" s="34"/>
-      <c r="H22" s="39"/>
-      <c r="I22" s="2">
-        <f>IFERROR(VLOOKUP($F22,Evaluation!C:F,4,FALSE),0)*H22</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="4"/>
-      <c r="B23" s="36"/>
-      <c r="C23" s="34"/>
-      <c r="D23" s="36"/>
-      <c r="E23" s="34"/>
-      <c r="F23" s="34"/>
-      <c r="G23" s="34"/>
-      <c r="H23" s="39"/>
-      <c r="I23" s="2">
-        <f>IFERROR(VLOOKUP($F23,Evaluation!C:F,4,FALSE),0)*H23</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="4"/>
-      <c r="B24" s="36"/>
-      <c r="C24" s="34"/>
-      <c r="D24" s="36"/>
-      <c r="E24" s="34"/>
-      <c r="F24" s="34"/>
-      <c r="G24" s="34"/>
-      <c r="H24" s="39"/>
-      <c r="I24" s="2">
-        <f>IFERROR(VLOOKUP($F24,Evaluation!C:F,4,FALSE),0)*H24</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="4"/>
-      <c r="B25" s="36"/>
-      <c r="C25" s="34"/>
-      <c r="D25" s="36"/>
-      <c r="E25" s="34"/>
-      <c r="F25" s="34"/>
-      <c r="G25" s="34"/>
-      <c r="H25" s="39"/>
-      <c r="I25" s="2">
-        <f>IFERROR(VLOOKUP($F25,Evaluation!C:F,4,FALSE),0)*H25</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="4"/>
-      <c r="B26" s="36"/>
-      <c r="C26" s="34"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="34"/>
-      <c r="F26" s="34"/>
-      <c r="G26" s="34"/>
-      <c r="H26" s="39"/>
-      <c r="I26" s="2">
-        <f>IFERROR(VLOOKUP($F26,Evaluation!C:F,4,FALSE),0)*H26</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="4"/>
-      <c r="B27" s="36"/>
-      <c r="C27" s="34"/>
-      <c r="D27" s="36"/>
-      <c r="E27" s="34"/>
-      <c r="F27" s="34"/>
-      <c r="G27" s="34"/>
-      <c r="H27" s="39"/>
-      <c r="I27" s="2">
-        <f>IFERROR(VLOOKUP($F27,Evaluation!C:F,4,FALSE),0)*H27</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="4"/>
-      <c r="B28" s="36"/>
-      <c r="C28" s="34"/>
-      <c r="D28" s="36"/>
-      <c r="E28" s="34"/>
-      <c r="F28" s="34"/>
-      <c r="G28" s="34"/>
-      <c r="H28" s="39"/>
-      <c r="I28" s="2">
-        <f>IFERROR(VLOOKUP($F28,Evaluation!C:F,4,FALSE),0)*H28</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H28" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="I28" s="23"/>
+      <c r="J28" s="2">
+        <f>IFERROR(VLOOKUP($G28,Evaluation!C:F,4,FALSE),0)*I28</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="4"/>
-      <c r="B29" s="36"/>
-      <c r="C29" s="34"/>
-      <c r="D29" s="36"/>
-      <c r="E29" s="34"/>
-      <c r="F29" s="34"/>
-      <c r="G29" s="34"/>
-      <c r="H29" s="39"/>
-      <c r="I29" s="2">
-        <f>IFERROR(VLOOKUP($F29,Evaluation!C:F,4,FALSE),0)*H29</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="20"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="60"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="36"/>
+      <c r="H29" s="18"/>
+      <c r="I29" s="23"/>
+      <c r="J29" s="2">
+        <f>IFERROR(VLOOKUP($G29,Evaluation!C:F,4,FALSE),0)*I29</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="4"/>
-      <c r="B30" s="36"/>
-      <c r="C30" s="34"/>
-      <c r="D30" s="36"/>
-      <c r="E30" s="34"/>
-      <c r="F30" s="34"/>
-      <c r="G30" s="34"/>
-      <c r="H30" s="39"/>
-      <c r="I30" s="2">
-        <f>IFERROR(VLOOKUP($F30,Evaluation!C:F,4,FALSE),0)*H30</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="20"/>
+      <c r="C30" s="18"/>
+      <c r="D30" s="60"/>
+      <c r="E30" s="20"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="36"/>
+      <c r="H30" s="18"/>
+      <c r="I30" s="23"/>
+      <c r="J30" s="2">
+        <f>IFERROR(VLOOKUP($G30,Evaluation!C:F,4,FALSE),0)*I30</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="4"/>
-      <c r="B31" s="36"/>
-      <c r="C31" s="34"/>
-      <c r="D31" s="36"/>
-      <c r="E31" s="34"/>
-      <c r="F31" s="34"/>
-      <c r="G31" s="34"/>
-      <c r="H31" s="39"/>
-      <c r="I31" s="2">
-        <f>IFERROR(VLOOKUP($F31,Evaluation!C:F,4,FALSE),0)*H31</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="20"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="60"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="36"/>
+      <c r="H31" s="18"/>
+      <c r="I31" s="23"/>
+      <c r="J31" s="2">
+        <f>IFERROR(VLOOKUP($G31,Evaluation!C:F,4,FALSE),0)*I31</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="4"/>
-      <c r="B32" s="36"/>
-      <c r="C32" s="34"/>
-      <c r="D32" s="36"/>
-      <c r="E32" s="34"/>
-      <c r="F32" s="34"/>
-      <c r="G32" s="34"/>
-      <c r="H32" s="39"/>
-      <c r="I32" s="2">
-        <f>IFERROR(VLOOKUP($F32,Evaluation!C:F,4,FALSE),0)*H32</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B32" s="20"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="60"/>
+      <c r="E32" s="20"/>
+      <c r="F32" s="18"/>
+      <c r="G32" s="36"/>
+      <c r="H32" s="18"/>
+      <c r="I32" s="23"/>
+      <c r="J32" s="2">
+        <f>IFERROR(VLOOKUP($G32,Evaluation!C:F,4,FALSE),0)*I32</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="4"/>
-      <c r="B33" s="36"/>
-      <c r="C33" s="34"/>
-      <c r="D33" s="36"/>
-      <c r="E33" s="34"/>
-      <c r="F33" s="34"/>
-      <c r="G33" s="34"/>
-      <c r="H33" s="39"/>
-      <c r="I33" s="2">
-        <f>IFERROR(VLOOKUP($F33,Evaluation!C:F,4,FALSE),0)*H33</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="20"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="60"/>
+      <c r="E33" s="20"/>
+      <c r="F33" s="18"/>
+      <c r="G33" s="36"/>
+      <c r="H33" s="18"/>
+      <c r="I33" s="23"/>
+      <c r="J33" s="2">
+        <f>IFERROR(VLOOKUP($G33,Evaluation!C:F,4,FALSE),0)*I33</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="4"/>
-      <c r="B34" s="36"/>
-      <c r="C34" s="34"/>
-      <c r="D34" s="36"/>
-      <c r="E34" s="34"/>
-      <c r="F34" s="34"/>
-      <c r="G34" s="34"/>
-      <c r="H34" s="39"/>
-      <c r="I34" s="2">
-        <f>IFERROR(VLOOKUP($F34,Evaluation!C:F,4,FALSE),0)*H34</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="20"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="60"/>
+      <c r="E34" s="20"/>
+      <c r="F34" s="18"/>
+      <c r="G34" s="36"/>
+      <c r="H34" s="18"/>
+      <c r="I34" s="23"/>
+      <c r="J34" s="2">
+        <f>IFERROR(VLOOKUP($G34,Evaluation!C:F,4,FALSE),0)*I34</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="4"/>
-      <c r="B35" s="36"/>
-      <c r="C35" s="34"/>
-      <c r="D35" s="36"/>
-      <c r="E35" s="34"/>
-      <c r="F35" s="34"/>
-      <c r="G35" s="34"/>
-      <c r="H35" s="39"/>
-      <c r="I35" s="2">
-        <f>IFERROR(VLOOKUP($F35,Evaluation!C:F,4,FALSE),0)*H35</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="20"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="60"/>
+      <c r="E35" s="20"/>
+      <c r="F35" s="18"/>
+      <c r="G35" s="36"/>
+      <c r="H35" s="18"/>
+      <c r="I35" s="23"/>
+      <c r="J35" s="2">
+        <f>IFERROR(VLOOKUP($G35,Evaluation!C:F,4,FALSE),0)*I35</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="4"/>
-      <c r="B36" s="36"/>
-      <c r="C36" s="34"/>
-      <c r="D36" s="36"/>
-      <c r="E36" s="34"/>
-      <c r="F36" s="34"/>
-      <c r="G36" s="34"/>
-      <c r="H36" s="39"/>
-      <c r="I36" s="2">
-        <f>IFERROR(VLOOKUP($F36,Evaluation!C:F,4,FALSE),0)*H36</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="20"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="60"/>
+      <c r="E36" s="20"/>
+      <c r="F36" s="18"/>
+      <c r="G36" s="36"/>
+      <c r="H36" s="18"/>
+      <c r="I36" s="23"/>
+      <c r="J36" s="2">
+        <f>IFERROR(VLOOKUP($G36,Evaluation!C:F,4,FALSE),0)*I36</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="4"/>
-      <c r="B37" s="36"/>
-      <c r="C37" s="34"/>
-      <c r="D37" s="36"/>
-      <c r="E37" s="34"/>
-      <c r="F37" s="34"/>
-      <c r="G37" s="34"/>
-      <c r="H37" s="39"/>
-      <c r="I37" s="2">
-        <f>IFERROR(VLOOKUP($F37,Evaluation!C:F,4,FALSE),0)*H37</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" ht="34" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="44"/>
-      <c r="B38" s="45"/>
-      <c r="C38" s="46"/>
-      <c r="D38" s="45"/>
-      <c r="E38" s="46"/>
-      <c r="F38" s="46"/>
-      <c r="G38" s="46"/>
-      <c r="H38" s="40"/>
-      <c r="I38" s="3">
-        <f>IFERROR(VLOOKUP($F38,Evaluation!C:F,4,FALSE),0)*H38</f>
+      <c r="B37" s="20"/>
+      <c r="C37" s="18"/>
+      <c r="D37" s="60"/>
+      <c r="E37" s="20"/>
+      <c r="F37" s="18"/>
+      <c r="G37" s="36"/>
+      <c r="H37" s="18"/>
+      <c r="I37" s="23"/>
+      <c r="J37" s="2">
+        <f>IFERROR(VLOOKUP($G37,Evaluation!C:F,4,FALSE),0)*I37</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="4"/>
+      <c r="B38" s="20"/>
+      <c r="C38" s="18"/>
+      <c r="D38" s="60"/>
+      <c r="E38" s="20"/>
+      <c r="F38" s="18"/>
+      <c r="G38" s="36"/>
+      <c r="H38" s="18"/>
+      <c r="I38" s="23"/>
+      <c r="J38" s="2">
+        <f>IFERROR(VLOOKUP($G38,Evaluation!C:F,4,FALSE),0)*I38</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="4"/>
+      <c r="B39" s="20"/>
+      <c r="C39" s="18"/>
+      <c r="D39" s="60"/>
+      <c r="E39" s="20"/>
+      <c r="F39" s="18"/>
+      <c r="G39" s="36"/>
+      <c r="H39" s="18"/>
+      <c r="I39" s="23"/>
+      <c r="J39" s="2">
+        <f>IFERROR(VLOOKUP($G39,Evaluation!C:F,4,FALSE),0)*I39</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="4"/>
+      <c r="B40" s="20"/>
+      <c r="C40" s="18"/>
+      <c r="D40" s="60"/>
+      <c r="E40" s="20"/>
+      <c r="F40" s="18"/>
+      <c r="G40" s="36"/>
+      <c r="H40" s="18"/>
+      <c r="I40" s="23"/>
+      <c r="J40" s="2">
+        <f>IFERROR(VLOOKUP($G40,Evaluation!C:F,4,FALSE),0)*I40</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="4"/>
+      <c r="B41" s="20"/>
+      <c r="C41" s="18"/>
+      <c r="D41" s="60"/>
+      <c r="E41" s="20"/>
+      <c r="F41" s="18"/>
+      <c r="G41" s="36"/>
+      <c r="H41" s="18"/>
+      <c r="I41" s="23"/>
+      <c r="J41" s="2">
+        <f>IFERROR(VLOOKUP($G41,Evaluation!C:F,4,FALSE),0)*I41</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="4"/>
+      <c r="B42" s="20"/>
+      <c r="C42" s="18"/>
+      <c r="D42" s="60"/>
+      <c r="E42" s="20"/>
+      <c r="F42" s="18"/>
+      <c r="G42" s="36"/>
+      <c r="H42" s="18"/>
+      <c r="I42" s="23"/>
+      <c r="J42" s="2">
+        <f>IFERROR(VLOOKUP($G42,Evaluation!C:F,4,FALSE),0)*I42</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="4"/>
+      <c r="B43" s="20"/>
+      <c r="C43" s="18"/>
+      <c r="D43" s="60"/>
+      <c r="E43" s="20"/>
+      <c r="F43" s="18"/>
+      <c r="G43" s="36"/>
+      <c r="H43" s="18"/>
+      <c r="I43" s="23"/>
+      <c r="J43" s="2">
+        <f>IFERROR(VLOOKUP($G43,Evaluation!C:F,4,FALSE),0)*I43</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" ht="50" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="28"/>
+      <c r="B44" s="29"/>
+      <c r="C44" s="30"/>
+      <c r="D44" s="61"/>
+      <c r="E44" s="29"/>
+      <c r="F44" s="30"/>
+      <c r="G44" s="37"/>
+      <c r="H44" s="30"/>
+      <c r="I44" s="24"/>
+      <c r="J44" s="3">
+        <f>IFERROR(VLOOKUP($G44,Evaluation!C:F,4,FALSE),0)*I44</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="A18:A19"/>
+  <mergeCells count="34">
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="D14:D17"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="A25:A28"/>
+    <mergeCell ref="B25:B28"/>
+    <mergeCell ref="C25:C28"/>
+    <mergeCell ref="A21:A24"/>
+    <mergeCell ref="D25:D28"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="C14:C17"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="B21:B22"/>
     <mergeCell ref="C3:C4"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="A7:A10"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="A12:A18"/>
     <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2589,23 +3101,23 @@
   <dimension ref="A1:F61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D57" sqref="D57"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="7.83203125" customWidth="1"/>
-    <col min="4" max="4" width="58" customWidth="1"/>
+    <col min="4" max="4" width="73" customWidth="1"/>
     <col min="5" max="5" width="21.83203125" customWidth="1"/>
     <col min="6" max="6" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
-        <v>35</v>
+      <c r="A1" s="12" t="s">
+        <v>28</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>6</v>
@@ -2613,688 +3125,688 @@
       <c r="D1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="E1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="28" t="s">
-        <v>37</v>
+      <c r="F1" s="17" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2" s="17" t="s">
+      <c r="A2" s="55" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="52" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="8"/>
       <c r="D2" s="1" t="str">
-        <f>IFERROR(VLOOKUP($C2,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
-        <v/>
-      </c>
-      <c r="E2" s="25"/>
-      <c r="F2" s="47"/>
+        <f>IFERROR(VLOOKUP($C2,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
+        <v/>
+      </c>
+      <c r="E2" s="14"/>
+      <c r="F2" s="31"/>
     </row>
     <row r="3" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="21"/>
-      <c r="B3" s="18"/>
+      <c r="A3" s="56"/>
+      <c r="B3" s="53"/>
       <c r="C3" s="11"/>
       <c r="D3" s="2" t="str">
-        <f>IFERROR(VLOOKUP($C3,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
-        <v/>
-      </c>
-      <c r="E3" s="26"/>
-      <c r="F3" s="48"/>
+        <f>IFERROR(VLOOKUP($C3,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
+        <v/>
+      </c>
+      <c r="E3" s="15"/>
+      <c r="F3" s="32"/>
     </row>
     <row r="4" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="21"/>
-      <c r="B4" s="18"/>
+      <c r="A4" s="56"/>
+      <c r="B4" s="53"/>
       <c r="C4" s="9"/>
       <c r="D4" s="2" t="str">
-        <f>IFERROR(VLOOKUP($C4,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
-        <v/>
-      </c>
-      <c r="E4" s="26"/>
-      <c r="F4" s="48"/>
+        <f>IFERROR(VLOOKUP($C4,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
+        <v/>
+      </c>
+      <c r="E4" s="15"/>
+      <c r="F4" s="32"/>
     </row>
     <row r="5" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="21"/>
-      <c r="B5" s="18"/>
+      <c r="A5" s="56"/>
+      <c r="B5" s="53"/>
       <c r="C5" s="9"/>
       <c r="D5" s="2" t="str">
-        <f>IFERROR(VLOOKUP($C5,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
-        <v/>
-      </c>
-      <c r="E5" s="26"/>
-      <c r="F5" s="48"/>
+        <f>IFERROR(VLOOKUP($C5,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
+        <v/>
+      </c>
+      <c r="E5" s="15"/>
+      <c r="F5" s="32"/>
     </row>
     <row r="6" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="21"/>
-      <c r="B6" s="18"/>
+      <c r="A6" s="56"/>
+      <c r="B6" s="53"/>
       <c r="C6" s="9"/>
       <c r="D6" s="2" t="str">
-        <f>IFERROR(VLOOKUP($C6,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
-        <v/>
-      </c>
-      <c r="E6" s="26"/>
-      <c r="F6" s="48"/>
+        <f>IFERROR(VLOOKUP($C6,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
+        <v/>
+      </c>
+      <c r="E6" s="15"/>
+      <c r="F6" s="32"/>
     </row>
     <row r="7" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="21"/>
-      <c r="B7" s="18"/>
+      <c r="A7" s="56"/>
+      <c r="B7" s="53"/>
       <c r="C7" s="9"/>
       <c r="D7" s="2" t="str">
-        <f>IFERROR(VLOOKUP($C7,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
-        <v/>
-      </c>
-      <c r="E7" s="26"/>
-      <c r="F7" s="48"/>
+        <f>IFERROR(VLOOKUP($C7,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
+        <v/>
+      </c>
+      <c r="E7" s="15"/>
+      <c r="F7" s="32"/>
     </row>
     <row r="8" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="21"/>
-      <c r="B8" s="18"/>
+      <c r="A8" s="56"/>
+      <c r="B8" s="53"/>
       <c r="C8" s="9"/>
       <c r="D8" s="2" t="str">
-        <f>IFERROR(VLOOKUP($C8,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
-        <v/>
-      </c>
-      <c r="E8" s="26"/>
-      <c r="F8" s="48"/>
+        <f>IFERROR(VLOOKUP($C8,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
+        <v/>
+      </c>
+      <c r="E8" s="15"/>
+      <c r="F8" s="32"/>
     </row>
     <row r="9" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="21"/>
-      <c r="B9" s="18"/>
+      <c r="A9" s="56"/>
+      <c r="B9" s="53"/>
       <c r="C9" s="9"/>
       <c r="D9" s="2" t="str">
-        <f>IFERROR(VLOOKUP($C9,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
-        <v/>
-      </c>
-      <c r="E9" s="26"/>
-      <c r="F9" s="48"/>
+        <f>IFERROR(VLOOKUP($C9,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
+        <v/>
+      </c>
+      <c r="E9" s="15"/>
+      <c r="F9" s="32"/>
     </row>
     <row r="10" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="21"/>
-      <c r="B10" s="18"/>
+      <c r="A10" s="56"/>
+      <c r="B10" s="53"/>
       <c r="C10" s="9"/>
       <c r="D10" s="2" t="str">
-        <f>IFERROR(VLOOKUP($C10,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
-        <v/>
-      </c>
-      <c r="E10" s="26"/>
-      <c r="F10" s="48"/>
+        <f>IFERROR(VLOOKUP($C10,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
+        <v/>
+      </c>
+      <c r="E10" s="15"/>
+      <c r="F10" s="32"/>
     </row>
     <row r="11" spans="1:6" ht="28" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="21"/>
-      <c r="B11" s="19"/>
+      <c r="A11" s="56"/>
+      <c r="B11" s="54"/>
       <c r="C11" s="10"/>
       <c r="D11" s="3" t="str">
-        <f>IFERROR(VLOOKUP($C11,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
-        <v/>
-      </c>
-      <c r="E11" s="27"/>
-      <c r="F11" s="49"/>
+        <f>IFERROR(VLOOKUP($C11,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
+        <v/>
+      </c>
+      <c r="E11" s="16"/>
+      <c r="F11" s="33"/>
     </row>
     <row r="12" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="21"/>
-      <c r="B12" s="17" t="s">
+      <c r="A12" s="56"/>
+      <c r="B12" s="52" t="s">
         <v>1</v>
       </c>
       <c r="C12" s="8"/>
       <c r="D12" s="1" t="str">
-        <f>IFERROR(VLOOKUP($C12,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
-        <v/>
-      </c>
-      <c r="E12" s="25"/>
-      <c r="F12" s="47"/>
+        <f>IFERROR(VLOOKUP($C12,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
+        <v/>
+      </c>
+      <c r="E12" s="14"/>
+      <c r="F12" s="31"/>
     </row>
     <row r="13" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="21"/>
-      <c r="B13" s="18"/>
+      <c r="A13" s="56"/>
+      <c r="B13" s="53"/>
       <c r="C13" s="9"/>
       <c r="D13" s="2" t="str">
-        <f>IFERROR(VLOOKUP($C13,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
-        <v/>
-      </c>
-      <c r="E13" s="26"/>
-      <c r="F13" s="48"/>
+        <f>IFERROR(VLOOKUP($C13,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
+        <v/>
+      </c>
+      <c r="E13" s="15"/>
+      <c r="F13" s="32"/>
     </row>
     <row r="14" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="21"/>
-      <c r="B14" s="18"/>
+      <c r="A14" s="56"/>
+      <c r="B14" s="53"/>
       <c r="C14" s="9"/>
       <c r="D14" s="2" t="str">
-        <f>IFERROR(VLOOKUP($C14,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
-        <v/>
-      </c>
-      <c r="E14" s="26"/>
-      <c r="F14" s="48"/>
+        <f>IFERROR(VLOOKUP($C14,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
+        <v/>
+      </c>
+      <c r="E14" s="15"/>
+      <c r="F14" s="32"/>
     </row>
     <row r="15" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="21"/>
-      <c r="B15" s="18"/>
+      <c r="A15" s="56"/>
+      <c r="B15" s="53"/>
       <c r="C15" s="9"/>
       <c r="D15" s="2" t="str">
-        <f>IFERROR(VLOOKUP($C15,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
-        <v/>
-      </c>
-      <c r="E15" s="26"/>
-      <c r="F15" s="48"/>
+        <f>IFERROR(VLOOKUP($C15,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
+        <v/>
+      </c>
+      <c r="E15" s="15"/>
+      <c r="F15" s="32"/>
     </row>
     <row r="16" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="21"/>
-      <c r="B16" s="18"/>
+      <c r="A16" s="56"/>
+      <c r="B16" s="53"/>
       <c r="C16" s="9"/>
       <c r="D16" s="2" t="str">
-        <f>IFERROR(VLOOKUP($C16,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
-        <v/>
-      </c>
-      <c r="E16" s="26"/>
-      <c r="F16" s="48"/>
+        <f>IFERROR(VLOOKUP($C16,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
+        <v/>
+      </c>
+      <c r="E16" s="15"/>
+      <c r="F16" s="32"/>
     </row>
     <row r="17" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="21"/>
-      <c r="B17" s="18"/>
+      <c r="A17" s="56"/>
+      <c r="B17" s="53"/>
       <c r="C17" s="9"/>
       <c r="D17" s="2" t="str">
-        <f>IFERROR(VLOOKUP($C17,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
-        <v/>
-      </c>
-      <c r="E17" s="26"/>
-      <c r="F17" s="48"/>
+        <f>IFERROR(VLOOKUP($C17,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
+        <v/>
+      </c>
+      <c r="E17" s="15"/>
+      <c r="F17" s="32"/>
     </row>
     <row r="18" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="21"/>
-      <c r="B18" s="18"/>
+      <c r="A18" s="56"/>
+      <c r="B18" s="53"/>
       <c r="C18" s="9"/>
       <c r="D18" s="2" t="str">
-        <f>IFERROR(VLOOKUP($C18,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
-        <v/>
-      </c>
-      <c r="E18" s="26"/>
-      <c r="F18" s="48"/>
+        <f>IFERROR(VLOOKUP($C18,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
+        <v/>
+      </c>
+      <c r="E18" s="15"/>
+      <c r="F18" s="32"/>
     </row>
     <row r="19" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="21"/>
-      <c r="B19" s="18"/>
+      <c r="A19" s="56"/>
+      <c r="B19" s="53"/>
       <c r="C19" s="9"/>
       <c r="D19" s="2" t="str">
-        <f>IFERROR(VLOOKUP($C19,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
-        <v/>
-      </c>
-      <c r="E19" s="26"/>
-      <c r="F19" s="48"/>
+        <f>IFERROR(VLOOKUP($C19,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
+        <v/>
+      </c>
+      <c r="E19" s="15"/>
+      <c r="F19" s="32"/>
     </row>
     <row r="20" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="21"/>
-      <c r="B20" s="18"/>
+      <c r="A20" s="56"/>
+      <c r="B20" s="53"/>
       <c r="C20" s="9"/>
       <c r="D20" s="2" t="str">
-        <f>IFERROR(VLOOKUP($C20,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
-        <v/>
-      </c>
-      <c r="E20" s="26"/>
-      <c r="F20" s="48"/>
+        <f>IFERROR(VLOOKUP($C20,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
+        <v/>
+      </c>
+      <c r="E20" s="15"/>
+      <c r="F20" s="32"/>
     </row>
     <row r="21" spans="1:6" ht="28" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="21"/>
-      <c r="B21" s="19"/>
+      <c r="A21" s="56"/>
+      <c r="B21" s="54"/>
       <c r="C21" s="10"/>
       <c r="D21" s="3" t="str">
-        <f>IFERROR(VLOOKUP($C21,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
-        <v/>
-      </c>
-      <c r="E21" s="27"/>
-      <c r="F21" s="49"/>
+        <f>IFERROR(VLOOKUP($C21,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
+        <v/>
+      </c>
+      <c r="E21" s="16"/>
+      <c r="F21" s="33"/>
     </row>
     <row r="22" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="21"/>
-      <c r="B22" s="17" t="s">
+      <c r="A22" s="56"/>
+      <c r="B22" s="52" t="s">
         <v>2</v>
       </c>
       <c r="C22" s="8"/>
       <c r="D22" s="1" t="str">
-        <f>IFERROR(VLOOKUP($C22,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
-        <v/>
-      </c>
-      <c r="E22" s="25"/>
-      <c r="F22" s="47"/>
+        <f>IFERROR(VLOOKUP($C22,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
+        <v/>
+      </c>
+      <c r="E22" s="14"/>
+      <c r="F22" s="31"/>
     </row>
     <row r="23" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="21"/>
-      <c r="B23" s="18"/>
+      <c r="A23" s="56"/>
+      <c r="B23" s="53"/>
       <c r="C23" s="9"/>
       <c r="D23" s="2" t="str">
-        <f>IFERROR(VLOOKUP($C23,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
-        <v/>
-      </c>
-      <c r="E23" s="26"/>
-      <c r="F23" s="48"/>
+        <f>IFERROR(VLOOKUP($C23,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
+        <v/>
+      </c>
+      <c r="E23" s="15"/>
+      <c r="F23" s="32"/>
     </row>
     <row r="24" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="21"/>
-      <c r="B24" s="18"/>
+      <c r="A24" s="56"/>
+      <c r="B24" s="53"/>
       <c r="C24" s="9"/>
       <c r="D24" s="2" t="str">
-        <f>IFERROR(VLOOKUP($C24,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
-        <v/>
-      </c>
-      <c r="E24" s="26"/>
-      <c r="F24" s="48"/>
+        <f>IFERROR(VLOOKUP($C24,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
+        <v/>
+      </c>
+      <c r="E24" s="15"/>
+      <c r="F24" s="32"/>
     </row>
     <row r="25" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="21"/>
-      <c r="B25" s="18"/>
+      <c r="A25" s="56"/>
+      <c r="B25" s="53"/>
       <c r="C25" s="9"/>
       <c r="D25" s="2" t="str">
-        <f>IFERROR(VLOOKUP($C25,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
-        <v/>
-      </c>
-      <c r="E25" s="26"/>
-      <c r="F25" s="48"/>
+        <f>IFERROR(VLOOKUP($C25,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
+        <v/>
+      </c>
+      <c r="E25" s="15"/>
+      <c r="F25" s="32"/>
     </row>
     <row r="26" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="21"/>
-      <c r="B26" s="18"/>
+      <c r="A26" s="56"/>
+      <c r="B26" s="53"/>
       <c r="C26" s="9"/>
       <c r="D26" s="2" t="str">
-        <f>IFERROR(VLOOKUP($C26,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
-        <v/>
-      </c>
-      <c r="E26" s="26"/>
-      <c r="F26" s="48"/>
+        <f>IFERROR(VLOOKUP($C26,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
+        <v/>
+      </c>
+      <c r="E26" s="15"/>
+      <c r="F26" s="32"/>
     </row>
     <row r="27" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="21"/>
-      <c r="B27" s="18"/>
+      <c r="A27" s="56"/>
+      <c r="B27" s="53"/>
       <c r="C27" s="9"/>
       <c r="D27" s="2" t="str">
-        <f>IFERROR(VLOOKUP($C27,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
-        <v/>
-      </c>
-      <c r="E27" s="26"/>
-      <c r="F27" s="48"/>
+        <f>IFERROR(VLOOKUP($C27,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
+        <v/>
+      </c>
+      <c r="E27" s="15"/>
+      <c r="F27" s="32"/>
     </row>
     <row r="28" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="21"/>
-      <c r="B28" s="18"/>
+      <c r="A28" s="56"/>
+      <c r="B28" s="53"/>
       <c r="C28" s="9"/>
       <c r="D28" s="2" t="str">
-        <f>IFERROR(VLOOKUP($C28,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
-        <v/>
-      </c>
-      <c r="E28" s="26"/>
-      <c r="F28" s="48"/>
+        <f>IFERROR(VLOOKUP($C28,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
+        <v/>
+      </c>
+      <c r="E28" s="15"/>
+      <c r="F28" s="32"/>
     </row>
     <row r="29" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="21"/>
-      <c r="B29" s="18"/>
+      <c r="A29" s="56"/>
+      <c r="B29" s="53"/>
       <c r="C29" s="9"/>
       <c r="D29" s="2" t="str">
-        <f>IFERROR(VLOOKUP($C29,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
-        <v/>
-      </c>
-      <c r="E29" s="26"/>
-      <c r="F29" s="48"/>
+        <f>IFERROR(VLOOKUP($C29,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
+        <v/>
+      </c>
+      <c r="E29" s="15"/>
+      <c r="F29" s="32"/>
     </row>
     <row r="30" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="21"/>
-      <c r="B30" s="18"/>
+      <c r="A30" s="56"/>
+      <c r="B30" s="53"/>
       <c r="C30" s="9"/>
       <c r="D30" s="2" t="str">
-        <f>IFERROR(VLOOKUP($C30,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
-        <v/>
-      </c>
-      <c r="E30" s="26"/>
-      <c r="F30" s="48"/>
+        <f>IFERROR(VLOOKUP($C30,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
+        <v/>
+      </c>
+      <c r="E30" s="15"/>
+      <c r="F30" s="32"/>
     </row>
     <row r="31" spans="1:6" ht="28" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="22"/>
-      <c r="B31" s="19"/>
+      <c r="A31" s="57"/>
+      <c r="B31" s="54"/>
       <c r="C31" s="10"/>
       <c r="D31" s="3" t="str">
-        <f>IFERROR(VLOOKUP($C31,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
-        <v/>
-      </c>
-      <c r="E31" s="27"/>
-      <c r="F31" s="49"/>
+        <f>IFERROR(VLOOKUP($C31,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
+        <v/>
+      </c>
+      <c r="E31" s="16"/>
+      <c r="F31" s="33"/>
     </row>
     <row r="32" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="B32" s="17" t="s">
-        <v>33</v>
+      <c r="A32" s="55" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" s="52" t="s">
+        <v>26</v>
       </c>
       <c r="C32" s="8"/>
       <c r="D32" s="1" t="str">
-        <f>IFERROR(VLOOKUP($C32,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
-        <v/>
-      </c>
-      <c r="E32" s="25"/>
-      <c r="F32" s="47"/>
+        <f>IFERROR(VLOOKUP($C32,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
+        <v/>
+      </c>
+      <c r="E32" s="14"/>
+      <c r="F32" s="31"/>
     </row>
     <row r="33" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="21"/>
-      <c r="B33" s="18"/>
+      <c r="A33" s="56"/>
+      <c r="B33" s="53"/>
       <c r="C33" s="9"/>
       <c r="D33" s="2" t="str">
-        <f>IFERROR(VLOOKUP($C33,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
-        <v/>
-      </c>
-      <c r="E33" s="26"/>
-      <c r="F33" s="48"/>
+        <f>IFERROR(VLOOKUP($C33,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
+        <v/>
+      </c>
+      <c r="E33" s="15"/>
+      <c r="F33" s="32"/>
     </row>
     <row r="34" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="21"/>
-      <c r="B34" s="18"/>
+      <c r="A34" s="56"/>
+      <c r="B34" s="53"/>
       <c r="C34" s="9"/>
       <c r="D34" s="2" t="str">
-        <f>IFERROR(VLOOKUP($C34,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
-        <v/>
-      </c>
-      <c r="E34" s="26"/>
-      <c r="F34" s="48"/>
+        <f>IFERROR(VLOOKUP($C34,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
+        <v/>
+      </c>
+      <c r="E34" s="15"/>
+      <c r="F34" s="32"/>
     </row>
     <row r="35" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="21"/>
-      <c r="B35" s="18"/>
+      <c r="A35" s="56"/>
+      <c r="B35" s="53"/>
       <c r="C35" s="9"/>
       <c r="D35" s="2" t="str">
-        <f>IFERROR(VLOOKUP($C35,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
-        <v/>
-      </c>
-      <c r="E35" s="26"/>
-      <c r="F35" s="48"/>
+        <f>IFERROR(VLOOKUP($C35,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
+        <v/>
+      </c>
+      <c r="E35" s="15"/>
+      <c r="F35" s="32"/>
     </row>
     <row r="36" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="21"/>
-      <c r="B36" s="18"/>
+      <c r="A36" s="56"/>
+      <c r="B36" s="53"/>
       <c r="C36" s="9"/>
       <c r="D36" s="2" t="str">
-        <f>IFERROR(VLOOKUP($C36,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
-        <v/>
-      </c>
-      <c r="E36" s="26"/>
-      <c r="F36" s="48"/>
+        <f>IFERROR(VLOOKUP($C36,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
+        <v/>
+      </c>
+      <c r="E36" s="15"/>
+      <c r="F36" s="32"/>
     </row>
     <row r="37" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="21"/>
-      <c r="B37" s="18"/>
+      <c r="A37" s="56"/>
+      <c r="B37" s="53"/>
       <c r="C37" s="9"/>
       <c r="D37" s="2" t="str">
-        <f>IFERROR(VLOOKUP($C37,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
-        <v/>
-      </c>
-      <c r="E37" s="26"/>
-      <c r="F37" s="48"/>
+        <f>IFERROR(VLOOKUP($C37,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
+        <v/>
+      </c>
+      <c r="E37" s="15"/>
+      <c r="F37" s="32"/>
     </row>
     <row r="38" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="21"/>
-      <c r="B38" s="18"/>
+      <c r="A38" s="56"/>
+      <c r="B38" s="53"/>
       <c r="C38" s="9"/>
       <c r="D38" s="2" t="str">
-        <f>IFERROR(VLOOKUP($C38,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
-        <v/>
-      </c>
-      <c r="E38" s="26"/>
-      <c r="F38" s="48"/>
+        <f>IFERROR(VLOOKUP($C38,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
+        <v/>
+      </c>
+      <c r="E38" s="15"/>
+      <c r="F38" s="32"/>
     </row>
     <row r="39" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="21"/>
-      <c r="B39" s="18"/>
+      <c r="A39" s="56"/>
+      <c r="B39" s="53"/>
       <c r="C39" s="9"/>
       <c r="D39" s="2" t="str">
-        <f>IFERROR(VLOOKUP($C39,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
-        <v/>
-      </c>
-      <c r="E39" s="26"/>
-      <c r="F39" s="48"/>
+        <f>IFERROR(VLOOKUP($C39,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
+        <v/>
+      </c>
+      <c r="E39" s="15"/>
+      <c r="F39" s="32"/>
     </row>
     <row r="40" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="21"/>
-      <c r="B40" s="18"/>
+      <c r="A40" s="56"/>
+      <c r="B40" s="53"/>
       <c r="C40" s="9"/>
       <c r="D40" s="2" t="str">
-        <f>IFERROR(VLOOKUP($C40,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
-        <v/>
-      </c>
-      <c r="E40" s="26"/>
-      <c r="F40" s="48"/>
+        <f>IFERROR(VLOOKUP($C40,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
+        <v/>
+      </c>
+      <c r="E40" s="15"/>
+      <c r="F40" s="32"/>
     </row>
     <row r="41" spans="1:6" ht="28" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="21"/>
-      <c r="B41" s="19"/>
+      <c r="A41" s="56"/>
+      <c r="B41" s="54"/>
       <c r="C41" s="10"/>
       <c r="D41" s="3" t="str">
-        <f>IFERROR(VLOOKUP($C41,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
-        <v/>
-      </c>
-      <c r="E41" s="27"/>
-      <c r="F41" s="49"/>
+        <f>IFERROR(VLOOKUP($C41,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
+        <v/>
+      </c>
+      <c r="E41" s="16"/>
+      <c r="F41" s="33"/>
     </row>
     <row r="42" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="21"/>
-      <c r="B42" s="17" t="s">
-        <v>13</v>
+      <c r="A42" s="56"/>
+      <c r="B42" s="52" t="s">
+        <v>11</v>
       </c>
       <c r="C42" s="8"/>
       <c r="D42" s="1" t="str">
-        <f>IFERROR(VLOOKUP($C42,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
-        <v/>
-      </c>
-      <c r="E42" s="25"/>
-      <c r="F42" s="47"/>
+        <f>IFERROR(VLOOKUP($C42,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
+        <v/>
+      </c>
+      <c r="E42" s="14"/>
+      <c r="F42" s="31"/>
     </row>
     <row r="43" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="21"/>
-      <c r="B43" s="18"/>
+      <c r="A43" s="56"/>
+      <c r="B43" s="53"/>
       <c r="C43" s="9"/>
       <c r="D43" s="2" t="str">
-        <f>IFERROR(VLOOKUP($C43,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
-        <v/>
-      </c>
-      <c r="E43" s="26"/>
-      <c r="F43" s="48"/>
+        <f>IFERROR(VLOOKUP($C43,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
+        <v/>
+      </c>
+      <c r="E43" s="15"/>
+      <c r="F43" s="32"/>
     </row>
     <row r="44" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="21"/>
-      <c r="B44" s="18"/>
+      <c r="A44" s="56"/>
+      <c r="B44" s="53"/>
       <c r="C44" s="9"/>
       <c r="D44" s="2" t="str">
-        <f>IFERROR(VLOOKUP($C44,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
-        <v/>
-      </c>
-      <c r="E44" s="26"/>
-      <c r="F44" s="48"/>
+        <f>IFERROR(VLOOKUP($C44,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
+        <v/>
+      </c>
+      <c r="E44" s="15"/>
+      <c r="F44" s="32"/>
     </row>
     <row r="45" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="21"/>
-      <c r="B45" s="18"/>
+      <c r="A45" s="56"/>
+      <c r="B45" s="53"/>
       <c r="C45" s="9"/>
       <c r="D45" s="2" t="str">
-        <f>IFERROR(VLOOKUP($C45,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
-        <v/>
-      </c>
-      <c r="E45" s="26"/>
-      <c r="F45" s="48"/>
+        <f>IFERROR(VLOOKUP($C45,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
+        <v/>
+      </c>
+      <c r="E45" s="15"/>
+      <c r="F45" s="32"/>
     </row>
     <row r="46" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="21"/>
-      <c r="B46" s="18"/>
+      <c r="A46" s="56"/>
+      <c r="B46" s="53"/>
       <c r="C46" s="9"/>
       <c r="D46" s="2" t="str">
-        <f>IFERROR(VLOOKUP($C46,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
-        <v/>
-      </c>
-      <c r="E46" s="26"/>
-      <c r="F46" s="48"/>
+        <f>IFERROR(VLOOKUP($C46,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
+        <v/>
+      </c>
+      <c r="E46" s="15"/>
+      <c r="F46" s="32"/>
     </row>
     <row r="47" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="21"/>
-      <c r="B47" s="18"/>
+      <c r="A47" s="56"/>
+      <c r="B47" s="53"/>
       <c r="C47" s="9"/>
       <c r="D47" s="2" t="str">
-        <f>IFERROR(VLOOKUP($C47,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
-        <v/>
-      </c>
-      <c r="E47" s="26"/>
-      <c r="F47" s="48"/>
+        <f>IFERROR(VLOOKUP($C47,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
+        <v/>
+      </c>
+      <c r="E47" s="15"/>
+      <c r="F47" s="32"/>
     </row>
     <row r="48" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="21"/>
-      <c r="B48" s="18"/>
+      <c r="A48" s="56"/>
+      <c r="B48" s="53"/>
       <c r="C48" s="9"/>
       <c r="D48" s="2" t="str">
-        <f>IFERROR(VLOOKUP($C48,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
-        <v/>
-      </c>
-      <c r="E48" s="26"/>
-      <c r="F48" s="48"/>
+        <f>IFERROR(VLOOKUP($C48,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
+        <v/>
+      </c>
+      <c r="E48" s="15"/>
+      <c r="F48" s="32"/>
     </row>
     <row r="49" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="21"/>
-      <c r="B49" s="18"/>
+      <c r="A49" s="56"/>
+      <c r="B49" s="53"/>
       <c r="C49" s="9"/>
       <c r="D49" s="2" t="str">
-        <f>IFERROR(VLOOKUP($C49,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
-        <v/>
-      </c>
-      <c r="E49" s="26"/>
-      <c r="F49" s="48"/>
+        <f>IFERROR(VLOOKUP($C49,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
+        <v/>
+      </c>
+      <c r="E49" s="15"/>
+      <c r="F49" s="32"/>
     </row>
     <row r="50" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="21"/>
-      <c r="B50" s="18"/>
+      <c r="A50" s="56"/>
+      <c r="B50" s="53"/>
       <c r="C50" s="9"/>
       <c r="D50" s="2" t="str">
-        <f>IFERROR(VLOOKUP($C50,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
-        <v/>
-      </c>
-      <c r="E50" s="26"/>
-      <c r="F50" s="48"/>
+        <f>IFERROR(VLOOKUP($C50,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
+        <v/>
+      </c>
+      <c r="E50" s="15"/>
+      <c r="F50" s="32"/>
     </row>
     <row r="51" spans="1:6" ht="28" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="21"/>
-      <c r="B51" s="19"/>
+      <c r="A51" s="56"/>
+      <c r="B51" s="54"/>
       <c r="C51" s="10"/>
       <c r="D51" s="3" t="str">
-        <f>IFERROR(VLOOKUP($C51,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
-        <v/>
-      </c>
-      <c r="E51" s="27"/>
-      <c r="F51" s="49"/>
+        <f>IFERROR(VLOOKUP($C51,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
+        <v/>
+      </c>
+      <c r="E51" s="16"/>
+      <c r="F51" s="33"/>
     </row>
     <row r="52" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="21"/>
-      <c r="B52" s="17" t="s">
-        <v>36</v>
+      <c r="A52" s="56"/>
+      <c r="B52" s="52" t="s">
+        <v>29</v>
       </c>
       <c r="C52" s="8"/>
       <c r="D52" s="1" t="str">
-        <f>IFERROR(VLOOKUP($C52,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
-        <v/>
-      </c>
-      <c r="E52" s="25"/>
-      <c r="F52" s="47"/>
+        <f>IFERROR(VLOOKUP($C52,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
+        <v/>
+      </c>
+      <c r="E52" s="14"/>
+      <c r="F52" s="31"/>
     </row>
     <row r="53" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="21"/>
-      <c r="B53" s="18"/>
+      <c r="A53" s="56"/>
+      <c r="B53" s="53"/>
       <c r="C53" s="9"/>
       <c r="D53" s="2" t="str">
-        <f>IFERROR(VLOOKUP($C53,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
-        <v/>
-      </c>
-      <c r="E53" s="26"/>
-      <c r="F53" s="48"/>
+        <f>IFERROR(VLOOKUP($C53,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
+        <v/>
+      </c>
+      <c r="E53" s="15"/>
+      <c r="F53" s="32"/>
     </row>
     <row r="54" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="21"/>
-      <c r="B54" s="18"/>
+      <c r="A54" s="56"/>
+      <c r="B54" s="53"/>
       <c r="C54" s="9"/>
       <c r="D54" s="2" t="str">
-        <f>IFERROR(VLOOKUP($C54,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
-        <v/>
-      </c>
-      <c r="E54" s="26"/>
-      <c r="F54" s="48"/>
+        <f>IFERROR(VLOOKUP($C54,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
+        <v/>
+      </c>
+      <c r="E54" s="15"/>
+      <c r="F54" s="32"/>
     </row>
     <row r="55" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="21"/>
-      <c r="B55" s="18"/>
+      <c r="A55" s="56"/>
+      <c r="B55" s="53"/>
       <c r="C55" s="9"/>
       <c r="D55" s="2" t="str">
-        <f>IFERROR(VLOOKUP($C55,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
-        <v/>
-      </c>
-      <c r="E55" s="26"/>
-      <c r="F55" s="48"/>
+        <f>IFERROR(VLOOKUP($C55,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
+        <v/>
+      </c>
+      <c r="E55" s="15"/>
+      <c r="F55" s="32"/>
     </row>
     <row r="56" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="21"/>
-      <c r="B56" s="18"/>
+      <c r="A56" s="56"/>
+      <c r="B56" s="53"/>
       <c r="C56" s="9"/>
       <c r="D56" s="2" t="str">
-        <f>IFERROR(VLOOKUP($C56,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
-        <v/>
-      </c>
-      <c r="E56" s="26"/>
-      <c r="F56" s="48"/>
+        <f>IFERROR(VLOOKUP($C56,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
+        <v/>
+      </c>
+      <c r="E56" s="15"/>
+      <c r="F56" s="32"/>
     </row>
     <row r="57" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="21"/>
-      <c r="B57" s="18"/>
+      <c r="A57" s="56"/>
+      <c r="B57" s="53"/>
       <c r="C57" s="9"/>
       <c r="D57" s="2" t="str">
-        <f>IFERROR(VLOOKUP($C57,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
-        <v/>
-      </c>
-      <c r="E57" s="26"/>
-      <c r="F57" s="48"/>
+        <f>IFERROR(VLOOKUP($C57,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
+        <v/>
+      </c>
+      <c r="E57" s="15"/>
+      <c r="F57" s="32"/>
     </row>
     <row r="58" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="21"/>
-      <c r="B58" s="18"/>
+      <c r="A58" s="56"/>
+      <c r="B58" s="53"/>
       <c r="C58" s="9"/>
       <c r="D58" s="2" t="str">
-        <f>IFERROR(VLOOKUP($C58,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
-        <v/>
-      </c>
-      <c r="E58" s="26"/>
-      <c r="F58" s="48"/>
+        <f>IFERROR(VLOOKUP($C58,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
+        <v/>
+      </c>
+      <c r="E58" s="15"/>
+      <c r="F58" s="32"/>
     </row>
     <row r="59" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="21"/>
-      <c r="B59" s="18"/>
+      <c r="A59" s="56"/>
+      <c r="B59" s="53"/>
       <c r="C59" s="9"/>
       <c r="D59" s="2" t="str">
-        <f>IFERROR(VLOOKUP($C59,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
-        <v/>
-      </c>
-      <c r="E59" s="26"/>
-      <c r="F59" s="48"/>
+        <f>IFERROR(VLOOKUP($C59,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
+        <v/>
+      </c>
+      <c r="E59" s="15"/>
+      <c r="F59" s="32"/>
     </row>
     <row r="60" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="21"/>
-      <c r="B60" s="18"/>
+      <c r="A60" s="56"/>
+      <c r="B60" s="53"/>
       <c r="C60" s="9"/>
       <c r="D60" s="2" t="str">
-        <f>IFERROR(VLOOKUP($C60,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
-        <v/>
-      </c>
-      <c r="E60" s="26"/>
-      <c r="F60" s="48"/>
+        <f>IFERROR(VLOOKUP($C60,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
+        <v/>
+      </c>
+      <c r="E60" s="15"/>
+      <c r="F60" s="32"/>
     </row>
     <row r="61" spans="1:6" ht="28" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="22"/>
-      <c r="B61" s="19"/>
+      <c r="A61" s="57"/>
+      <c r="B61" s="54"/>
       <c r="C61" s="10"/>
       <c r="D61" s="3" t="str">
-        <f>IFERROR(VLOOKUP($C61,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
-        <v/>
-      </c>
-      <c r="E61" s="27"/>
-      <c r="F61" s="49"/>
+        <f>IFERROR(VLOOKUP($C61,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
+        <v/>
+      </c>
+      <c r="E61" s="16"/>
+      <c r="F61" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -3317,7 +3829,7 @@
   <dimension ref="A6:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3326,29 +3838,29 @@
   </cols>
   <sheetData>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="41" t="s">
-        <v>45</v>
+      <c r="A6" s="25" t="s">
+        <v>36</v>
       </c>
       <c r="B6" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="C6" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="D6" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="42">
-        <f>SUM('QUT-GQM'!H2:H6)</f>
-        <v>0</v>
-      </c>
-      <c r="C7" s="42">
-        <f>SUM('QUT-GQM'!I2:I6)</f>
+      <c r="B7" s="26">
+        <f>SUM('QUT-GQM'!I2:I7)</f>
+        <v>0</v>
+      </c>
+      <c r="C7" s="26">
+        <f>SUM('QUT-GQM'!J2:J7)</f>
         <v>0</v>
       </c>
       <c r="D7">
@@ -3358,14 +3870,14 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="42">
-        <f>SUM('QUT-GQM'!H7:H10)</f>
-        <v>0</v>
-      </c>
-      <c r="C8" s="42">
-        <f>SUM('QUT-GQM'!I7:I10)</f>
+        <v>11</v>
+      </c>
+      <c r="B8" s="26">
+        <f>SUM('QUT-GQM'!I8:I11)</f>
+        <v>0</v>
+      </c>
+      <c r="C8" s="26">
+        <f>SUM('QUT-GQM'!J8:J11)</f>
         <v>0</v>
       </c>
       <c r="D8">
@@ -3375,14 +3887,14 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="42">
-        <f>SUM('QUT-GQM'!H11:H15)</f>
-        <v>0</v>
-      </c>
-      <c r="C9" s="42">
-        <f>SUM('QUT-GQM'!I11:I15)</f>
+        <v>14</v>
+      </c>
+      <c r="B9" s="26">
+        <f>SUM('QUT-GQM'!I12:I18)</f>
+        <v>0</v>
+      </c>
+      <c r="C9" s="26">
+        <f>SUM('QUT-GQM'!J12:J18)</f>
         <v>0</v>
       </c>
       <c r="D9">
@@ -3392,14 +3904,14 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" s="42">
-        <f>SUM('QUT-GQM'!H15:H17)</f>
-        <v>0</v>
-      </c>
-      <c r="C10" s="42">
-        <f>SUM('QUT-GQM'!I15:I17)</f>
+        <v>18</v>
+      </c>
+      <c r="B10" s="26">
+        <f>SUM('QUT-GQM'!I19:I20)</f>
+        <v>0</v>
+      </c>
+      <c r="C10" s="26">
+        <f>SUM('QUT-GQM'!J19:J20)</f>
         <v>0</v>
       </c>
       <c r="D10">
@@ -3409,14 +3921,14 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11" s="42">
-        <f>SUM('QUT-GQM'!H18:H19)</f>
-        <v>0</v>
-      </c>
-      <c r="C11" s="42">
-        <f>SUM('QUT-GQM'!I18:I19)</f>
+        <v>21</v>
+      </c>
+      <c r="B11" s="26">
+        <f>SUM('QUT-GQM'!I21:I24)</f>
+        <v>0</v>
+      </c>
+      <c r="C11" s="26">
+        <f>SUM('QUT-GQM'!J21:J24)</f>
         <v>0</v>
       </c>
       <c r="D11">
@@ -3426,14 +3938,14 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>38</v>
-      </c>
-      <c r="B12" s="42">
-        <f>SUM('QUT-GQM'!H20)</f>
-        <v>0</v>
-      </c>
-      <c r="C12" s="42">
-        <f>SUM('QUT-GQM'!I20)</f>
+        <v>75</v>
+      </c>
+      <c r="B12" s="26">
+        <f>SUM('QUT-GQM'!I25:I28)</f>
+        <v>0</v>
+      </c>
+      <c r="C12" s="26">
+        <f>SUM('QUT-GQM'!J25:J28)</f>
         <v>0</v>
       </c>
       <c r="D12">
@@ -3444,7 +3956,7 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="B7:B11" formulaRange="1"/>
+    <ignoredError sqref="B7:B12" formulaRange="1"/>
   </ignoredErrors>
   <drawing r:id="rId1"/>
 </worksheet>
